--- a/examples/CountingTable.xlsx
+++ b/examples/CountingTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/bolton/Active/Users/IrenaeusChan/Moba500/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irenaeuschan/Documents/Irenaeus/TEST_MOBASEQ/mobaseq_dev/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0868803-764E-9547-8A62-68CFF7BF736B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C066F7EC-5FD0-464E-8623-2DB283DC1703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3560" yWindow="2020" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet16" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="99">
   <si>
     <t>Sample</t>
   </si>
@@ -604,8 +604,8 @@
   </sheetPr>
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2095,7 +2095,9 @@
       <c r="A47" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C47" s="3" t="s">
         <v>34</v>
       </c>
